--- a/src/main/resources/AppWithSchoolCode.xlsx
+++ b/src/main/resources/AppWithSchoolCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\govgrants-scdc-automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2D15CA-AD0A-440B-A743-41A10E7B2CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1EE26A-A67C-483E-A8F6-D2D510034685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
